--- a/Tableau Tables/Tableau Table 1.xlsx
+++ b/Tableau Tables/Tableau Table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukul\Documents\#Programing\Github\Covid-Data-Analysis-And-Visualization\Tableau Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7151A0BC-08CD-41BA-B460-F9BC80D7E073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA9E70E-C975-4758-B8CE-8C6B4B7CB302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
+  <si>
+    <t>location</t>
+  </si>
   <si>
     <t>total_cases</t>
   </si>
@@ -29,6 +32,585 @@
   </si>
   <si>
     <t>death_rate</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (country)</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -869,13 +1451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,16 +1475,2696 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>208786437</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4383544</v>
+        <v>152363</v>
       </c>
       <c r="C2">
-        <v>2.0995348467007902</v>
+        <v>7043</v>
+      </c>
+      <c r="D2">
+        <v>4.6225133398528504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>137075</v>
+      </c>
+      <c r="C3">
+        <v>2471</v>
+      </c>
+      <c r="D3">
+        <v>1.8026627758526299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>189384</v>
+      </c>
+      <c r="C4">
+        <v>4898</v>
+      </c>
+      <c r="D4">
+        <v>2.58627972796012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>14976</v>
+      </c>
+      <c r="C5">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>0.86137820512820495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>45175</v>
+      </c>
+      <c r="C6">
+        <v>1125</v>
+      </c>
+      <c r="D6">
+        <v>2.4903154399557201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1421</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>3.0260380014074499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5106207</v>
+      </c>
+      <c r="C8">
+        <v>109652</v>
+      </c>
+      <c r="D8">
+        <v>2.14742567232389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>235675</v>
+      </c>
+      <c r="C9">
+        <v>4716</v>
+      </c>
+      <c r="D9">
+        <v>2.0010607828577398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>41521</v>
+      </c>
+      <c r="C10">
+        <v>972</v>
+      </c>
+      <c r="D10">
+        <v>2.3409840803448798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>671593</v>
+      </c>
+      <c r="C11">
+        <v>10757</v>
+      </c>
+      <c r="D11">
+        <v>1.60171413341115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>377304</v>
+      </c>
+      <c r="C12">
+        <v>5208</v>
+      </c>
+      <c r="D12">
+        <v>1.3803193181095299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>16668</v>
+      </c>
+      <c r="C13">
+        <v>313</v>
+      </c>
+      <c r="D13">
+        <v>1.8778497720182299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>271257</v>
+      </c>
+      <c r="C14">
+        <v>1385</v>
+      </c>
+      <c r="D14">
+        <v>0.51058590193064102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1440644</v>
+      </c>
+      <c r="C15">
+        <v>24719</v>
+      </c>
+      <c r="D15">
+        <v>1.71582986497705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>4594</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>1.0448410970831501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>463855</v>
+      </c>
+      <c r="C17">
+        <v>3637</v>
+      </c>
+      <c r="D17">
+        <v>0.78408123228163895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1159366</v>
+      </c>
+      <c r="C18">
+        <v>25305</v>
+      </c>
+      <c r="D18">
+        <v>2.1826584529820598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>15182</v>
+      </c>
+      <c r="C19">
+        <v>347</v>
+      </c>
+      <c r="D19">
+        <v>2.2856013700434699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>10183</v>
+      </c>
+      <c r="C20">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>1.1686143572620999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2577</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.116414435389988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>484446</v>
+      </c>
+      <c r="C22">
+        <v>18236</v>
+      </c>
+      <c r="D22">
+        <v>3.7642998394041798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>208267</v>
+      </c>
+      <c r="C23">
+        <v>9718</v>
+      </c>
+      <c r="D23">
+        <v>4.6661256944211003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>142380</v>
+      </c>
+      <c r="C24">
+        <v>2043</v>
+      </c>
+      <c r="D24">
+        <v>1.43489254108723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>20457897</v>
+      </c>
+      <c r="C25">
+        <v>571662</v>
+      </c>
+      <c r="D25">
+        <v>2.7943341390368701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>946</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0.31712473572938599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>437327</v>
+      </c>
+      <c r="C27">
+        <v>18411</v>
+      </c>
+      <c r="D27">
+        <v>4.2098932835155303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>13680</v>
+      </c>
+      <c r="C28">
+        <v>171</v>
+      </c>
+      <c r="D28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>10198</v>
+      </c>
+      <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>0.37262208276132502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>87190</v>
+      </c>
+      <c r="C30">
+        <v>1730</v>
+      </c>
+      <c r="D30">
+        <v>1.98417249684596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>82454</v>
+      </c>
+      <c r="C31">
+        <v>1338</v>
+      </c>
+      <c r="D31">
+        <v>1.62272297280908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1467834</v>
+      </c>
+      <c r="C32">
+        <v>26729</v>
+      </c>
+      <c r="D32">
+        <v>1.82098248167027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>34529</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>0.86883489240927902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>11251</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>0.87992178473024596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>4984</v>
+      </c>
+      <c r="C35">
+        <v>174</v>
+      </c>
+      <c r="D35">
+        <v>3.4911717495987098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>1630831</v>
+      </c>
+      <c r="C36">
+        <v>36456</v>
+      </c>
+      <c r="D36">
+        <v>2.2354247619771699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>94061</v>
+      </c>
+      <c r="C37">
+        <v>4619</v>
+      </c>
+      <c r="D37">
+        <v>4.9106430933117799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>4877323</v>
+      </c>
+      <c r="C38">
+        <v>123781</v>
+      </c>
+      <c r="D38">
+        <v>2.5378880996809099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>4039</v>
+      </c>
+      <c r="C39">
+        <v>147</v>
+      </c>
+      <c r="D39">
+        <v>3.6395147313691498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>13398</v>
+      </c>
+      <c r="C40">
+        <v>179</v>
+      </c>
+      <c r="D40">
+        <v>1.33602030153754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>436276</v>
+      </c>
+      <c r="C41">
+        <v>5284</v>
+      </c>
+      <c r="D41">
+        <v>1.2111599079481701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>53089</v>
+      </c>
+      <c r="C42">
+        <v>373</v>
+      </c>
+      <c r="D42">
+        <v>0.70259375765224397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>367933</v>
+      </c>
+      <c r="C43">
+        <v>8291</v>
+      </c>
+      <c r="D43">
+        <v>2.2533993960857002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>545275</v>
+      </c>
+      <c r="C44">
+        <v>4240</v>
+      </c>
+      <c r="D44">
+        <v>0.77758928980789499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>110098</v>
+      </c>
+      <c r="C45">
+        <v>467</v>
+      </c>
+      <c r="D45">
+        <v>0.42416755981034998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>1676817</v>
+      </c>
+      <c r="C46">
+        <v>30378</v>
+      </c>
+      <c r="D46">
+        <v>1.81164670921155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>53620</v>
+      </c>
+      <c r="C47">
+        <v>1050</v>
+      </c>
+      <c r="D47">
+        <v>1.95822454308094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>335081</v>
+      </c>
+      <c r="C48">
+        <v>2564</v>
+      </c>
+      <c r="D48">
+        <v>0.76518811869368897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>11689</v>
+      </c>
+      <c r="C49">
+        <v>156</v>
+      </c>
+      <c r="D49">
+        <v>1.33458807425784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>953</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>346693</v>
+      </c>
+      <c r="C51">
+        <v>3989</v>
+      </c>
+      <c r="D51">
+        <v>1.15058567666494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>493767</v>
+      </c>
+      <c r="C52">
+        <v>23084</v>
+      </c>
+      <c r="D52">
+        <v>4.6750795415651503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>285700</v>
+      </c>
+      <c r="C53">
+        <v>16638</v>
+      </c>
+      <c r="D53">
+        <v>5.8235911795589699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>92135</v>
+      </c>
+      <c r="C54">
+        <v>2812</v>
+      </c>
+      <c r="D54">
+        <v>3.0520431974819502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>9010</v>
+      </c>
+      <c r="C55">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>1.3651498335183101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>6611</v>
+      </c>
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>0.55967327181969395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>137800</v>
+      </c>
+      <c r="C57">
+        <v>1281</v>
+      </c>
+      <c r="D57">
+        <v>0.92960812772133505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>38030</v>
+      </c>
+      <c r="C58">
+        <v>961</v>
+      </c>
+      <c r="D58">
+        <v>2.5269524059952602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>291803</v>
+      </c>
+      <c r="C59">
+        <v>4505</v>
+      </c>
+      <c r="D59">
+        <v>1.54384978907002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>41830</v>
+      </c>
+      <c r="C60">
+        <v>413</v>
+      </c>
+      <c r="D60">
+        <v>0.987329667702605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>119320</v>
+      </c>
+      <c r="C61">
+        <v>1008</v>
+      </c>
+      <c r="D61">
+        <v>0.84478712705330194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>6960111</v>
+      </c>
+      <c r="C62">
+        <v>113239</v>
+      </c>
+      <c r="D62">
+        <v>1.6269711790515899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>25626</v>
+      </c>
+      <c r="C63">
+        <v>165</v>
+      </c>
+      <c r="D63">
+        <v>0.64387731210489296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>9318</v>
+      </c>
+      <c r="C64">
+        <v>277</v>
+      </c>
+      <c r="D64">
+        <v>2.9727409315303701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>496376</v>
+      </c>
+      <c r="C65">
+        <v>6532</v>
+      </c>
+      <c r="D65">
+        <v>1.31593791802988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>3846226</v>
+      </c>
+      <c r="C66">
+        <v>91949</v>
+      </c>
+      <c r="D66">
+        <v>2.3906291517971101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>112378</v>
+      </c>
+      <c r="C67">
+        <v>945</v>
+      </c>
+      <c r="D67">
+        <v>0.840911922262364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>547186</v>
+      </c>
+      <c r="C68">
+        <v>13245</v>
+      </c>
+      <c r="D68">
+        <v>2.4205663156586601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>188</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.53191489361702105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>422270</v>
+      </c>
+      <c r="C70">
+        <v>11273</v>
+      </c>
+      <c r="D70">
+        <v>2.6696189641698398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>28308</v>
+      </c>
+      <c r="C71">
+        <v>299</v>
+      </c>
+      <c r="D71">
+        <v>1.05623851914653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>5206</v>
+      </c>
+      <c r="C72">
+        <v>94</v>
+      </c>
+      <c r="D72">
+        <v>1.80560891279293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>23795</v>
+      </c>
+      <c r="C73">
+        <v>587</v>
+      </c>
+      <c r="D73">
+        <v>2.4669048119352799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>20556</v>
+      </c>
+      <c r="C74">
+        <v>576</v>
+      </c>
+      <c r="D74">
+        <v>2.80210157618213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>323625</v>
+      </c>
+      <c r="C75">
+        <v>8527</v>
+      </c>
+      <c r="D75">
+        <v>2.6348397064503599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>12042</v>
+      </c>
+      <c r="C76">
+        <v>212</v>
+      </c>
+      <c r="D76">
+        <v>1.7605048995183501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>810658</v>
+      </c>
+      <c r="C77">
+        <v>30045</v>
+      </c>
+      <c r="D77">
+        <v>3.7062485043014401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>9812</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>0.30574806359559697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>32285857</v>
+      </c>
+      <c r="C79">
+        <v>432519</v>
+      </c>
+      <c r="D79">
+        <v>1.33965469772104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>3908247</v>
+      </c>
+      <c r="C80">
+        <v>121141</v>
+      </c>
+      <c r="D80">
+        <v>3.0996249725260401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>4556417</v>
+      </c>
+      <c r="C81">
+        <v>99691</v>
+      </c>
+      <c r="D81">
+        <v>2.1879252930537301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>1801364</v>
+      </c>
+      <c r="C82">
+        <v>19886</v>
+      </c>
+      <c r="D82">
+        <v>1.10394123564143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>329388</v>
+      </c>
+      <c r="C83">
+        <v>5074</v>
+      </c>
+      <c r="D83">
+        <v>1.5404325597775199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>962193</v>
+      </c>
+      <c r="C84">
+        <v>6723</v>
+      </c>
+      <c r="D84">
+        <v>0.69871636979275398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>4456765</v>
+      </c>
+      <c r="C85">
+        <v>128579</v>
+      </c>
+      <c r="D85">
+        <v>2.8850298366640299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>59377</v>
+      </c>
+      <c r="C86">
+        <v>1339</v>
+      </c>
+      <c r="D86">
+        <v>2.2550819340822201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>1207510</v>
+      </c>
+      <c r="C87">
+        <v>15527</v>
+      </c>
+      <c r="D87">
+        <v>1.2858692681634101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>786585</v>
+      </c>
+      <c r="C88">
+        <v>10252</v>
+      </c>
+      <c r="D88">
+        <v>1.3033556449716099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>782518</v>
+      </c>
+      <c r="C89">
+        <v>11725</v>
+      </c>
+      <c r="D89">
+        <v>1.49836808865738</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>224400</v>
+      </c>
+      <c r="C90">
+        <v>4378</v>
+      </c>
+      <c r="D90">
+        <v>1.95098039215686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>120862</v>
+      </c>
+      <c r="C92">
+        <v>2295</v>
+      </c>
+      <c r="D92">
+        <v>1.8988598566960599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>407376</v>
+      </c>
+      <c r="C93">
+        <v>2397</v>
+      </c>
+      <c r="D93">
+        <v>0.58839990573818701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>172937</v>
+      </c>
+      <c r="C94">
+        <v>2462</v>
+      </c>
+      <c r="D94">
+        <v>1.4236398225943501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>11029</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>8.1603046513736496E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>140505</v>
+      </c>
+      <c r="C96">
+        <v>2566</v>
+      </c>
+      <c r="D96">
+        <v>1.82626952777481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>586585</v>
+      </c>
+      <c r="C97">
+        <v>7993</v>
+      </c>
+      <c r="D97">
+        <v>1.36263286650698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>14352</v>
+      </c>
+      <c r="C98">
+        <v>399</v>
+      </c>
+      <c r="D98">
+        <v>2.7801003344481598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>5459</v>
+      </c>
+      <c r="C99">
+        <v>148</v>
+      </c>
+      <c r="D99">
+        <v>2.7111192526103598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>289219</v>
+      </c>
+      <c r="C100">
+        <v>3968</v>
+      </c>
+      <c r="D100">
+        <v>1.37197072114902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>3185</v>
+      </c>
+      <c r="C101">
+        <v>59</v>
+      </c>
+      <c r="D101">
+        <v>1.8524332810046999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>291412</v>
+      </c>
+      <c r="C102">
+        <v>4461</v>
+      </c>
+      <c r="D102">
+        <v>1.5308223408782</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>74855</v>
+      </c>
+      <c r="C103">
+        <v>829</v>
+      </c>
+      <c r="D103">
+        <v>1.1074744506045</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>42832</v>
+      </c>
+      <c r="C104">
+        <v>954</v>
+      </c>
+      <c r="D104">
+        <v>2.22730668658946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>58861</v>
+      </c>
+      <c r="C105">
+        <v>2012</v>
+      </c>
+      <c r="D105">
+        <v>3.4182225922087599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>1466512</v>
+      </c>
+      <c r="C106">
+        <v>13302</v>
+      </c>
+      <c r="D106">
+        <v>0.90705019802088205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>79525</v>
+      </c>
+      <c r="C107">
+        <v>222</v>
+      </c>
+      <c r="D107">
+        <v>0.27915749764225001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>14714</v>
+      </c>
+      <c r="C108">
+        <v>535</v>
+      </c>
+      <c r="D108">
+        <v>3.63599293190159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>35516</v>
+      </c>
+      <c r="C109">
+        <v>433</v>
+      </c>
+      <c r="D109">
+        <v>1.2191688253181601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>30897</v>
+      </c>
+      <c r="C111">
+        <v>653</v>
+      </c>
+      <c r="D111">
+        <v>2.1134738000453099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>6460</v>
+      </c>
+      <c r="C112">
+        <v>22</v>
+      </c>
+      <c r="D112">
+        <v>0.34055727554179499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>3152205</v>
+      </c>
+      <c r="C113">
+        <v>250469</v>
+      </c>
+      <c r="D113">
+        <v>7.9458347410780696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>263074</v>
+      </c>
+      <c r="C115">
+        <v>6328</v>
+      </c>
+      <c r="D115">
+        <v>2.4054068437017699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>3099</v>
+      </c>
+      <c r="C116">
+        <v>33</v>
+      </c>
+      <c r="D116">
+        <v>1.0648596321393899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>186537</v>
+      </c>
+      <c r="C117">
+        <v>889</v>
+      </c>
+      <c r="D117">
+        <v>0.47658105362475001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>107576</v>
+      </c>
+      <c r="C118">
+        <v>1657</v>
+      </c>
+      <c r="D118">
+        <v>1.5403063880419401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>782097</v>
+      </c>
+      <c r="C119">
+        <v>11345</v>
+      </c>
+      <c r="D119">
+        <v>1.4505873312389601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>140765</v>
+      </c>
+      <c r="C120">
+        <v>1761</v>
+      </c>
+      <c r="D120">
+        <v>1.25102120555535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>363169</v>
+      </c>
+      <c r="C121">
+        <v>13786</v>
+      </c>
+      <c r="D121">
+        <v>3.7960288460744098</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>122885</v>
+      </c>
+      <c r="C122">
+        <v>3300</v>
+      </c>
+      <c r="D122">
+        <v>2.6854376042641399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>739907</v>
+      </c>
+      <c r="C123">
+        <v>10396</v>
+      </c>
+      <c r="D123">
+        <v>1.4050414443977399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>1942545</v>
+      </c>
+      <c r="C124">
+        <v>18242</v>
+      </c>
+      <c r="D124">
+        <v>0.93907734441158297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>2937</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>0.88525706503234503</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>10251</v>
+      </c>
+      <c r="C126">
+        <v>197</v>
+      </c>
+      <c r="D126">
+        <v>1.9217637303677599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>5741</v>
+      </c>
+      <c r="C127">
+        <v>196</v>
+      </c>
+      <c r="D127">
+        <v>3.41403936596411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>183444</v>
+      </c>
+      <c r="C128">
+        <v>2229</v>
+      </c>
+      <c r="D128">
+        <v>1.21508471250081</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>164529</v>
+      </c>
+      <c r="C129">
+        <v>5589</v>
+      </c>
+      <c r="D129">
+        <v>3.3969695312072599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>146373</v>
+      </c>
+      <c r="C130">
+        <v>811</v>
+      </c>
+      <c r="D130">
+        <v>0.55406393255586694</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>300728</v>
+      </c>
+      <c r="C131">
+        <v>4013</v>
+      </c>
+      <c r="D131">
+        <v>1.3344284536192099</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>1109274</v>
+      </c>
+      <c r="C132">
+        <v>24639</v>
+      </c>
+      <c r="D132">
+        <v>2.2211825031507</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>322620</v>
+      </c>
+      <c r="C133">
+        <v>3627</v>
+      </c>
+      <c r="D133">
+        <v>1.12423284359308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>449762</v>
+      </c>
+      <c r="C134">
+        <v>6981</v>
+      </c>
+      <c r="D134">
+        <v>1.5521542504702399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>17832</v>
+      </c>
+      <c r="C135">
+        <v>192</v>
+      </c>
+      <c r="D135">
+        <v>1.0767160161507401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>457222</v>
+      </c>
+      <c r="C136">
+        <v>15492</v>
+      </c>
+      <c r="D136">
+        <v>3.3882884025703</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>2137295</v>
+      </c>
+      <c r="C137">
+        <v>197659</v>
+      </c>
+      <c r="D137">
+        <v>9.2480916298405198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>1776495</v>
+      </c>
+      <c r="C138">
+        <v>30623</v>
+      </c>
+      <c r="D138">
+        <v>1.7237875704688099</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>2885883</v>
+      </c>
+      <c r="C139">
+        <v>75307</v>
+      </c>
+      <c r="D139">
+        <v>2.6094959497665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>1009571</v>
+      </c>
+      <c r="C140">
+        <v>17601</v>
+      </c>
+      <c r="D140">
+        <v>1.74341378664799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>229915</v>
+      </c>
+      <c r="C141">
+        <v>601</v>
+      </c>
+      <c r="D141">
+        <v>0.26140095252593298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>1088594</v>
+      </c>
+      <c r="C142">
+        <v>34365</v>
+      </c>
+      <c r="D142">
+        <v>3.15682430731751</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>6572246</v>
+      </c>
+      <c r="C143">
+        <v>169948</v>
+      </c>
+      <c r="D143">
+        <v>2.5858435609379198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>81339</v>
+      </c>
+      <c r="C144">
+        <v>980</v>
+      </c>
+      <c r="D144">
+        <v>1.2048340894281899</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>708</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0.42372881355932202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>6578</v>
+      </c>
+      <c r="C146">
+        <v>95</v>
+      </c>
+      <c r="D146">
+        <v>1.4442079659470899</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>2320</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>0.51724137931034397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>53</v>
+      </c>
+      <c r="D148" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>5231</v>
+      </c>
+      <c r="C149">
+        <v>90</v>
+      </c>
+      <c r="D149">
+        <v>1.72051233033836</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>2496</v>
+      </c>
+      <c r="C150">
+        <v>37</v>
+      </c>
+      <c r="D150">
+        <v>1.48237179487179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>539129</v>
+      </c>
+      <c r="C151">
+        <v>8419</v>
+      </c>
+      <c r="D151">
+        <v>1.5615928655294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>71266</v>
+      </c>
+      <c r="C152">
+        <v>1636</v>
+      </c>
+      <c r="D152">
+        <v>2.2956248421407102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>736313</v>
+      </c>
+      <c r="C153">
+        <v>7183</v>
+      </c>
+      <c r="D153">
+        <v>0.97553621897209397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>19186</v>
+      </c>
+      <c r="C154">
+        <v>101</v>
+      </c>
+      <c r="D154">
+        <v>0.52642551860731701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>6346</v>
+      </c>
+      <c r="C155">
+        <v>121</v>
+      </c>
+      <c r="D155">
+        <v>1.9067128900094501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>66334</v>
+      </c>
+      <c r="C156">
+        <v>46</v>
+      </c>
+      <c r="D156">
+        <v>6.9346036723249002E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>393722</v>
+      </c>
+      <c r="C157">
+        <v>12547</v>
+      </c>
+      <c r="D157">
+        <v>3.1867662970319102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>262189</v>
+      </c>
+      <c r="C158">
+        <v>4436</v>
+      </c>
+      <c r="D158">
+        <v>1.69190927155601</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>16535</v>
+      </c>
+      <c r="C160">
+        <v>897</v>
+      </c>
+      <c r="D160">
+        <v>5.4248563652857502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>2638981</v>
+      </c>
+      <c r="C161">
+        <v>78377</v>
+      </c>
+      <c r="D161">
+        <v>2.9699721218152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>230807</v>
+      </c>
+      <c r="C162">
+        <v>2191</v>
+      </c>
+      <c r="D162">
+        <v>0.94927796817254195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>11223</v>
+      </c>
+      <c r="C163">
+        <v>120</v>
+      </c>
+      <c r="D163">
+        <v>1.0692328254477399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>4745558</v>
+      </c>
+      <c r="C164">
+        <v>82883</v>
+      </c>
+      <c r="D164">
+        <v>1.7465385524737</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>369359</v>
+      </c>
+      <c r="C165">
+        <v>6604</v>
+      </c>
+      <c r="D165">
+        <v>1.78796238889535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>37616</v>
+      </c>
+      <c r="C166">
+        <v>2817</v>
+      </c>
+      <c r="D166">
+        <v>7.4888345384942498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>26916</v>
+      </c>
+      <c r="C167">
+        <v>692</v>
+      </c>
+      <c r="D167">
+        <v>2.57096150988259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>1114278</v>
+      </c>
+      <c r="C168">
+        <v>14662</v>
+      </c>
+      <c r="D168">
+        <v>1.3158296224102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>747396</v>
+      </c>
+      <c r="C169">
+        <v>10935</v>
+      </c>
+      <c r="D169">
+        <v>1.46307981311112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>26554</v>
+      </c>
+      <c r="C170">
+        <v>1947</v>
+      </c>
+      <c r="D170">
+        <v>7.3322286661143297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>15890</v>
+      </c>
+      <c r="C171">
+        <v>821</v>
+      </c>
+      <c r="D171">
+        <v>5.1667715544367496</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>16275</v>
+      </c>
+      <c r="C172">
+        <v>124</v>
+      </c>
+      <c r="D172">
+        <v>0.76190476190476097</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>1367</v>
+      </c>
+      <c r="C173">
+        <v>50</v>
+      </c>
+      <c r="D173">
+        <v>3.6576444769568299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>968953</v>
+      </c>
+      <c r="C174">
+        <v>8285</v>
+      </c>
+      <c r="D174">
+        <v>0.85504663280881499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>13155</v>
+      </c>
+      <c r="C175">
+        <v>40</v>
+      </c>
+      <c r="D175">
+        <v>0.30406689471683701</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>18605</v>
+      </c>
+      <c r="C176">
+        <v>172</v>
+      </c>
+      <c r="D176">
+        <v>0.92448266595001305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>42427</v>
+      </c>
+      <c r="C177">
+        <v>1200</v>
+      </c>
+      <c r="D177">
+        <v>2.8283875833784999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>632328</v>
+      </c>
+      <c r="C178">
+        <v>22304</v>
+      </c>
+      <c r="D178">
+        <v>3.5272833086625899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>5315197</v>
+      </c>
+      <c r="C179">
+        <v>53675</v>
+      </c>
+      <c r="D179">
+        <v>1.0098402749700499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>97294</v>
+      </c>
+      <c r="C180">
+        <v>2917</v>
+      </c>
+      <c r="D180">
+        <v>2.9981293810512399</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>2359893</v>
+      </c>
+      <c r="C181">
+        <v>56297</v>
+      </c>
+      <c r="D181">
+        <v>2.3855742612059099</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>705089</v>
+      </c>
+      <c r="C182">
+        <v>2009</v>
+      </c>
+      <c r="D182">
+        <v>0.28492856930117999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>6385982</v>
+      </c>
+      <c r="C183">
+        <v>131577</v>
+      </c>
+      <c r="D183">
+        <v>2.0604035526564202</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>37155668</v>
+      </c>
+      <c r="C184">
+        <v>624257</v>
+      </c>
+      <c r="D184">
+        <v>1.6801124393726401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>383645</v>
+      </c>
+      <c r="C185">
+        <v>6012</v>
+      </c>
+      <c r="D185">
+        <v>1.56707372701325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>145615</v>
+      </c>
+      <c r="C186">
+        <v>994</v>
+      </c>
+      <c r="D186">
+        <v>0.68262198262541596</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>320922</v>
+      </c>
+      <c r="C189">
+        <v>3830</v>
+      </c>
+      <c r="D189">
+        <v>1.1934364113398199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>302101</v>
+      </c>
+      <c r="C190">
+        <v>6770</v>
+      </c>
+      <c r="D190">
+        <v>2.2409723900284999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>7372</v>
+      </c>
+      <c r="C191">
+        <v>1411</v>
+      </c>
+      <c r="D191">
+        <v>19.139989148127999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>203169</v>
+      </c>
+      <c r="C192">
+        <v>3556</v>
+      </c>
+      <c r="D192">
+        <v>1.7502670190826299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>121498</v>
+      </c>
+      <c r="C193">
+        <v>4181</v>
+      </c>
+      <c r="D193">
+        <v>3.44120890878862</v>
       </c>
     </row>
   </sheetData>
